--- a/samples/templates/32readwriteLineChart4.xlsx
+++ b/samples/templates/32readwriteLineChart4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\chartgrid\samples\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A30CA73-B927-42E7-9811-6F86AF4EB46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAC3D37-E981-4420-97B7-C3B2AD5EAE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,6 +436,16 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -885,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
